--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Plxna3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H2">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I2">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J2">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.14812568282619</v>
+        <v>0.2165623333333333</v>
       </c>
       <c r="N2">
-        <v>0.14812568282619</v>
+        <v>0.649687</v>
       </c>
       <c r="O2">
-        <v>0.01752739211375259</v>
+        <v>0.0231281940961727</v>
       </c>
       <c r="P2">
-        <v>0.01752739211375259</v>
+        <v>0.02312819409617271</v>
       </c>
       <c r="Q2">
-        <v>1.850807841536531</v>
+        <v>5.779416098091</v>
       </c>
       <c r="R2">
-        <v>1.850807841536531</v>
+        <v>52.014744882819</v>
       </c>
       <c r="S2">
-        <v>0.01455253404489371</v>
+        <v>0.02091640705259612</v>
       </c>
       <c r="T2">
-        <v>0.01455253404489371</v>
+        <v>0.02091640705259612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H3">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I3">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J3">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.18778294841411</v>
+        <v>3.199173</v>
       </c>
       <c r="N3">
-        <v>3.18778294841411</v>
+        <v>9.597519</v>
       </c>
       <c r="O3">
-        <v>0.3772034710277095</v>
+        <v>0.3416618806805514</v>
       </c>
       <c r="P3">
-        <v>0.3772034710277095</v>
+        <v>0.3416618806805514</v>
       </c>
       <c r="Q3">
-        <v>39.8308623155127</v>
+        <v>85.37658258566701</v>
       </c>
       <c r="R3">
-        <v>39.8308623155127</v>
+        <v>768.389243271003</v>
       </c>
       <c r="S3">
-        <v>0.3131821504509933</v>
+        <v>0.3089881960067314</v>
       </c>
       <c r="T3">
-        <v>0.3131821504509933</v>
+        <v>0.3089881960067314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H4">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I4">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J4">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.769343989947585</v>
+        <v>0.909509</v>
       </c>
       <c r="N4">
-        <v>0.769343989947585</v>
+        <v>2.728527</v>
       </c>
       <c r="O4">
-        <v>0.09103481263268176</v>
+        <v>0.09713277632559651</v>
       </c>
       <c r="P4">
-        <v>0.09103481263268176</v>
+        <v>0.09713277632559653</v>
       </c>
       <c r="Q4">
-        <v>9.6128359529981</v>
+        <v>24.272138534211</v>
       </c>
       <c r="R4">
-        <v>9.6128359529981</v>
+        <v>218.449246807899</v>
       </c>
       <c r="S4">
-        <v>0.07558381769003431</v>
+        <v>0.08784380999773574</v>
       </c>
       <c r="T4">
-        <v>0.07558381769003431</v>
+        <v>0.08784380999773575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H5">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I5">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J5">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.936489906638735</v>
+        <v>0.9524316666666667</v>
       </c>
       <c r="N5">
-        <v>0.936489906638735</v>
+        <v>2.857295</v>
       </c>
       <c r="O5">
-        <v>0.1108128279380763</v>
+        <v>0.1017167856983806</v>
       </c>
       <c r="P5">
-        <v>0.1108128279380763</v>
+        <v>0.1017167856983806</v>
       </c>
       <c r="Q5">
-        <v>11.70129871914641</v>
+        <v>25.417619130435</v>
       </c>
       <c r="R5">
-        <v>11.70129871914641</v>
+        <v>228.758572173915</v>
       </c>
       <c r="S5">
-        <v>0.09200498515204081</v>
+        <v>0.09198944305388232</v>
       </c>
       <c r="T5">
-        <v>0.09200498515204081</v>
+        <v>0.09198944305388231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H6">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I6">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J6">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.40935401094286</v>
+        <v>0.2904826666666667</v>
       </c>
       <c r="N6">
-        <v>3.40935401094286</v>
+        <v>0.871448</v>
       </c>
       <c r="O6">
-        <v>0.4034214962877797</v>
+        <v>0.03102265935553815</v>
       </c>
       <c r="P6">
-        <v>0.4034214962877797</v>
+        <v>0.03102265935553815</v>
       </c>
       <c r="Q6">
-        <v>42.5993589878081</v>
+        <v>7.752133873464</v>
       </c>
       <c r="R6">
-        <v>42.5993589878081</v>
+        <v>69.76920486117601</v>
       </c>
       <c r="S6">
-        <v>0.3349502892996523</v>
+        <v>0.02805591168234979</v>
       </c>
       <c r="T6">
-        <v>0.3349502892996523</v>
+        <v>0.02805591168234979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.17416814651917</v>
+        <v>26.687079</v>
       </c>
       <c r="H7">
-        <v>1.17416814651917</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I7">
-        <v>0.07802264164385611</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J7">
-        <v>0.07802264164385611</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.14812568282619</v>
+        <v>3.795405666666667</v>
       </c>
       <c r="N7">
-        <v>0.14812568282619</v>
+        <v>11.386217</v>
       </c>
       <c r="O7">
-        <v>0.01752739211375259</v>
+        <v>0.4053377038437606</v>
       </c>
       <c r="P7">
-        <v>0.01752739211375259</v>
+        <v>0.4053377038437606</v>
       </c>
       <c r="Q7">
-        <v>0.173924458455914</v>
+        <v>101.288290863381</v>
       </c>
       <c r="R7">
-        <v>0.173924458455914</v>
+        <v>911.5946177704291</v>
       </c>
       <c r="S7">
-        <v>0.001367533433842668</v>
+        <v>0.3665745960149886</v>
       </c>
       <c r="T7">
-        <v>0.001367533433842668</v>
+        <v>0.3665745960149885</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H8">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I8">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J8">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.18778294841411</v>
+        <v>0.2165623333333333</v>
       </c>
       <c r="N8">
-        <v>3.18778294841411</v>
+        <v>0.649687</v>
       </c>
       <c r="O8">
-        <v>0.3772034710277095</v>
+        <v>0.0231281940961727</v>
       </c>
       <c r="P8">
-        <v>0.3772034710277095</v>
+        <v>0.02312819409617271</v>
       </c>
       <c r="Q8">
-        <v>3.74299319604481</v>
+        <v>0.2548950935198889</v>
       </c>
       <c r="R8">
-        <v>3.74299319604481</v>
+        <v>2.294055841679</v>
       </c>
       <c r="S8">
-        <v>0.02943041124681364</v>
+        <v>0.0009224962247540194</v>
       </c>
       <c r="T8">
-        <v>0.02943041124681364</v>
+        <v>0.0009224962247540193</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H9">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I9">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J9">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.769343989947585</v>
+        <v>3.199173</v>
       </c>
       <c r="N9">
-        <v>0.769343989947585</v>
+        <v>9.597519</v>
       </c>
       <c r="O9">
-        <v>0.09103481263268176</v>
+        <v>0.3416618806805514</v>
       </c>
       <c r="P9">
-        <v>0.09103481263268176</v>
+        <v>0.3416618806805514</v>
       </c>
       <c r="Q9">
-        <v>0.9033392067124189</v>
+        <v>3.765444749647</v>
       </c>
       <c r="R9">
-        <v>0.9033392067124189</v>
+        <v>33.889002746823</v>
       </c>
       <c r="S9">
-        <v>0.007102776563155314</v>
+        <v>0.01362760074390433</v>
       </c>
       <c r="T9">
-        <v>0.007102776563155314</v>
+        <v>0.01362760074390433</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H10">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I10">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J10">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.936489906638735</v>
+        <v>0.909509</v>
       </c>
       <c r="N10">
-        <v>0.936489906638735</v>
+        <v>2.728527</v>
       </c>
       <c r="O10">
-        <v>0.1108128279380763</v>
+        <v>0.09713277632559651</v>
       </c>
       <c r="P10">
-        <v>0.1108128279380763</v>
+        <v>0.09713277632559653</v>
       </c>
       <c r="Q10">
-        <v>1.099596617911914</v>
+        <v>1.070497246884333</v>
       </c>
       <c r="R10">
-        <v>1.099596617911914</v>
+        <v>9.634475221959001</v>
       </c>
       <c r="S10">
-        <v>0.008645909563754817</v>
+        <v>0.003874259230428514</v>
       </c>
       <c r="T10">
-        <v>0.008645909563754817</v>
+        <v>0.003874259230428514</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H11">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I11">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J11">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.40935401094286</v>
+        <v>0.9524316666666667</v>
       </c>
       <c r="N11">
-        <v>3.40935401094286</v>
+        <v>2.857295</v>
       </c>
       <c r="O11">
-        <v>0.4034214962877797</v>
+        <v>0.1017167856983806</v>
       </c>
       <c r="P11">
-        <v>0.4034214962877797</v>
+        <v>0.1017167856983806</v>
       </c>
       <c r="Q11">
-        <v>4.003154879856476</v>
+        <v>1.121017468779445</v>
       </c>
       <c r="R11">
-        <v>4.003154879856476</v>
+        <v>10.089157219015</v>
       </c>
       <c r="S11">
-        <v>0.03147601083628967</v>
+        <v>0.00405709803414342</v>
       </c>
       <c r="T11">
-        <v>0.03147601083628967</v>
+        <v>0.004057098034143419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0675226066562304</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H12">
-        <v>0.0675226066562304</v>
+        <v>3.531017</v>
       </c>
       <c r="I12">
-        <v>0.004486829384373957</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J12">
-        <v>0.004486829384373957</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.14812568282619</v>
+        <v>0.2904826666666667</v>
       </c>
       <c r="N12">
-        <v>0.14812568282619</v>
+        <v>0.871448</v>
       </c>
       <c r="O12">
-        <v>0.01752739211375259</v>
+        <v>0.03102265935553815</v>
       </c>
       <c r="P12">
-        <v>0.01752739211375259</v>
+        <v>0.03102265935553815</v>
       </c>
       <c r="Q12">
-        <v>0.01000183221715837</v>
+        <v>0.3418997447351111</v>
       </c>
       <c r="R12">
-        <v>0.01000183221715837</v>
+        <v>3.077097702616</v>
       </c>
       <c r="S12">
-        <v>7.864241796742949E-05</v>
+        <v>0.001237376598376512</v>
       </c>
       <c r="T12">
-        <v>7.864241796742949E-05</v>
+        <v>0.001237376598376512</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0675226066562304</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H13">
-        <v>0.0675226066562304</v>
+        <v>3.531017</v>
       </c>
       <c r="I13">
-        <v>0.004486829384373957</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J13">
-        <v>0.004486829384373957</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.18778294841411</v>
+        <v>3.795405666666667</v>
       </c>
       <c r="N13">
-        <v>3.18778294841411</v>
+        <v>11.386217</v>
       </c>
       <c r="O13">
-        <v>0.3772034710277095</v>
+        <v>0.4053377038437606</v>
       </c>
       <c r="P13">
-        <v>0.3772034710277095</v>
+        <v>0.4053377038437606</v>
       </c>
       <c r="Q13">
-        <v>0.2152474141312044</v>
+        <v>4.467213976965446</v>
       </c>
       <c r="R13">
-        <v>0.2152474141312044</v>
+        <v>40.204925792689</v>
       </c>
       <c r="S13">
-        <v>0.001692447617694978</v>
+        <v>0.01616738859901774</v>
       </c>
       <c r="T13">
-        <v>0.001692447617694978</v>
+        <v>0.01616738859901774</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H14">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I14">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J14">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.769343989947585</v>
+        <v>0.2165623333333333</v>
       </c>
       <c r="N14">
-        <v>0.769343989947585</v>
+        <v>0.649687</v>
       </c>
       <c r="O14">
-        <v>0.09103481263268176</v>
+        <v>0.0231281940961727</v>
       </c>
       <c r="P14">
-        <v>0.09103481263268176</v>
+        <v>0.02312819409617271</v>
       </c>
       <c r="Q14">
-        <v>0.05194811161656566</v>
+        <v>0.01708178716633333</v>
       </c>
       <c r="R14">
-        <v>0.05194811161656566</v>
+        <v>0.153736084497</v>
       </c>
       <c r="S14">
-        <v>0.000408457672321294</v>
+        <v>6.182105726473939E-05</v>
       </c>
       <c r="T14">
-        <v>0.000408457672321294</v>
+        <v>6.182105726473939E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H15">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I15">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J15">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.936489906638735</v>
+        <v>3.199173</v>
       </c>
       <c r="N15">
-        <v>0.936489906638735</v>
+        <v>9.597519</v>
       </c>
       <c r="O15">
-        <v>0.1108128279380763</v>
+        <v>0.3416618806805514</v>
       </c>
       <c r="P15">
-        <v>0.1108128279380763</v>
+        <v>0.3416618806805514</v>
       </c>
       <c r="Q15">
-        <v>0.06323423960349724</v>
+        <v>0.252341168721</v>
       </c>
       <c r="R15">
-        <v>0.06323423960349724</v>
+        <v>2.271070518489</v>
       </c>
       <c r="S15">
-        <v>0.0004971982525581362</v>
+        <v>0.0009132532614911865</v>
       </c>
       <c r="T15">
-        <v>0.0004971982525581362</v>
+        <v>0.0009132532614911864</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H16">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I16">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J16">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.40935401094286</v>
+        <v>0.909509</v>
       </c>
       <c r="N16">
-        <v>3.40935401094286</v>
+        <v>2.728527</v>
       </c>
       <c r="O16">
-        <v>0.4034214962877797</v>
+        <v>0.09713277632559651</v>
       </c>
       <c r="P16">
-        <v>0.4034214962877797</v>
+        <v>0.09713277632559653</v>
       </c>
       <c r="Q16">
-        <v>0.2302084698327362</v>
+        <v>0.07173934139300001</v>
       </c>
       <c r="R16">
-        <v>0.2302084698327362</v>
+        <v>0.645654072537</v>
       </c>
       <c r="S16">
-        <v>0.001810083423832119</v>
+        <v>0.0002596333679377725</v>
       </c>
       <c r="T16">
-        <v>0.001810083423832119</v>
+        <v>0.0002596333679377725</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.31253095609178</v>
+        <v>0.078877</v>
       </c>
       <c r="H17">
-        <v>1.31253095609178</v>
+        <v>0.236631</v>
       </c>
       <c r="I17">
-        <v>0.08721675233415543</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J17">
-        <v>0.08721675233415543</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.14812568282619</v>
+        <v>0.9524316666666667</v>
       </c>
       <c r="N17">
-        <v>0.14812568282619</v>
+        <v>2.857295</v>
       </c>
       <c r="O17">
-        <v>0.01752739211375259</v>
+        <v>0.1017167856983806</v>
       </c>
       <c r="P17">
-        <v>0.01752739211375259</v>
+        <v>0.1017167856983806</v>
       </c>
       <c r="Q17">
-        <v>0.1944195441016069</v>
+        <v>0.07512495257166667</v>
       </c>
       <c r="R17">
-        <v>0.1944195441016069</v>
+        <v>0.6761245731450001</v>
       </c>
       <c r="S17">
-        <v>0.001528682217048789</v>
+        <v>0.000271886304970322</v>
       </c>
       <c r="T17">
-        <v>0.001528682217048789</v>
+        <v>0.0002718863049703219</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.31253095609178</v>
+        <v>0.078877</v>
       </c>
       <c r="H18">
-        <v>1.31253095609178</v>
+        <v>0.236631</v>
       </c>
       <c r="I18">
-        <v>0.08721675233415543</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J18">
-        <v>0.08721675233415543</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>3.18778294841411</v>
+        <v>0.2904826666666667</v>
       </c>
       <c r="N18">
-        <v>3.18778294841411</v>
+        <v>0.871448</v>
       </c>
       <c r="O18">
-        <v>0.3772034710277095</v>
+        <v>0.03102265935553815</v>
       </c>
       <c r="P18">
-        <v>0.3772034710277095</v>
+        <v>0.03102265935553815</v>
       </c>
       <c r="Q18">
-        <v>4.184063801095045</v>
+        <v>0.02291240129866667</v>
       </c>
       <c r="R18">
-        <v>4.184063801095045</v>
+        <v>0.206211611688</v>
       </c>
       <c r="S18">
-        <v>0.03289846171220751</v>
+        <v>8.292275620605402E-05</v>
       </c>
       <c r="T18">
-        <v>0.03289846171220751</v>
+        <v>8.292275620605402E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.31253095609178</v>
+        <v>0.078877</v>
       </c>
       <c r="H19">
-        <v>1.31253095609178</v>
+        <v>0.236631</v>
       </c>
       <c r="I19">
-        <v>0.08721675233415543</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J19">
-        <v>0.08721675233415543</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.769343989947585</v>
+        <v>3.795405666666667</v>
       </c>
       <c r="N19">
-        <v>0.769343989947585</v>
+        <v>11.386217</v>
       </c>
       <c r="O19">
-        <v>0.09103481263268176</v>
+        <v>0.4053377038437606</v>
       </c>
       <c r="P19">
-        <v>0.09103481263268176</v>
+        <v>0.4053377038437606</v>
       </c>
       <c r="Q19">
-        <v>1.009787802689369</v>
+        <v>0.2993702127696667</v>
       </c>
       <c r="R19">
-        <v>1.009787802689369</v>
+        <v>2.694331914927</v>
       </c>
       <c r="S19">
-        <v>0.00793976070717085</v>
+        <v>0.001083457069613136</v>
       </c>
       <c r="T19">
-        <v>0.00793976070717085</v>
+        <v>0.001083457069613135</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.31253095609178</v>
+        <v>0.1348843333333333</v>
       </c>
       <c r="H20">
-        <v>1.31253095609178</v>
+        <v>0.404653</v>
       </c>
       <c r="I20">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347527</v>
       </c>
       <c r="J20">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347526</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.936489906638735</v>
+        <v>0.2165623333333333</v>
       </c>
       <c r="N20">
-        <v>0.936489906638735</v>
+        <v>0.649687</v>
       </c>
       <c r="O20">
-        <v>0.1108128279380763</v>
+        <v>0.0231281940961727</v>
       </c>
       <c r="P20">
-        <v>0.1108128279380763</v>
+        <v>0.02312819409617271</v>
       </c>
       <c r="Q20">
-        <v>1.229171992530841</v>
+        <v>0.02921086595677778</v>
       </c>
       <c r="R20">
-        <v>1.229171992530841</v>
+        <v>0.262897793611</v>
       </c>
       <c r="S20">
-        <v>0.009664734969722585</v>
+        <v>0.0001057176628816537</v>
       </c>
       <c r="T20">
-        <v>0.009664734969722585</v>
+        <v>0.0001057176628816537</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1348843333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.404653</v>
+      </c>
+      <c r="I21">
+        <v>0.004570943258347527</v>
+      </c>
+      <c r="J21">
+        <v>0.004570943258347526</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.199173</v>
+      </c>
+      <c r="N21">
+        <v>9.597519</v>
+      </c>
+      <c r="O21">
+        <v>0.3416618806805514</v>
+      </c>
+      <c r="P21">
+        <v>0.3416618806805514</v>
+      </c>
+      <c r="Q21">
+        <v>0.431518317323</v>
+      </c>
+      <c r="R21">
+        <v>3.883664855907</v>
+      </c>
+      <c r="S21">
+        <v>0.001561717070131103</v>
+      </c>
+      <c r="T21">
+        <v>0.001561717070131103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1348843333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.404653</v>
+      </c>
+      <c r="I22">
+        <v>0.004570943258347527</v>
+      </c>
+      <c r="J22">
+        <v>0.004570943258347526</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.909509</v>
+      </c>
+      <c r="N22">
+        <v>2.728527</v>
+      </c>
+      <c r="O22">
+        <v>0.09713277632559651</v>
+      </c>
+      <c r="P22">
+        <v>0.09713277632559653</v>
+      </c>
+      <c r="Q22">
+        <v>0.1226785151256667</v>
+      </c>
+      <c r="R22">
+        <v>1.104106636131</v>
+      </c>
+      <c r="S22">
+        <v>0.0004439884091100636</v>
+      </c>
+      <c r="T22">
+        <v>0.0004439884091100636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1348843333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.404653</v>
+      </c>
+      <c r="I23">
+        <v>0.004570943258347527</v>
+      </c>
+      <c r="J23">
+        <v>0.004570943258347526</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9524316666666667</v>
+      </c>
+      <c r="N23">
+        <v>2.857295</v>
+      </c>
+      <c r="O23">
+        <v>0.1017167856983806</v>
+      </c>
+      <c r="P23">
+        <v>0.1017167856983806</v>
+      </c>
+      <c r="Q23">
+        <v>0.1284681104038889</v>
+      </c>
+      <c r="R23">
+        <v>1.156212993635</v>
+      </c>
+      <c r="S23">
+        <v>0.0004649416558487929</v>
+      </c>
+      <c r="T23">
+        <v>0.0004649416558487928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1348843333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.404653</v>
+      </c>
+      <c r="I24">
+        <v>0.004570943258347527</v>
+      </c>
+      <c r="J24">
+        <v>0.004570943258347526</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.2904826666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.871448</v>
+      </c>
+      <c r="O24">
+        <v>0.03102265935553815</v>
+      </c>
+      <c r="P24">
+        <v>0.03102265935553815</v>
+      </c>
+      <c r="Q24">
+        <v>0.03918156083822222</v>
+      </c>
+      <c r="R24">
+        <v>0.352634047544</v>
+      </c>
+      <c r="S24">
+        <v>0.0001418028156372089</v>
+      </c>
+      <c r="T24">
+        <v>0.0001418028156372089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1348843333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.404653</v>
+      </c>
+      <c r="I25">
+        <v>0.004570943258347527</v>
+      </c>
+      <c r="J25">
+        <v>0.004570943258347526</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.795405666666667</v>
+      </c>
+      <c r="N25">
+        <v>11.386217</v>
+      </c>
+      <c r="O25">
+        <v>0.4053377038437606</v>
+      </c>
+      <c r="P25">
+        <v>0.4053377038437606</v>
+      </c>
+      <c r="Q25">
+        <v>0.5119407630778889</v>
+      </c>
+      <c r="R25">
+        <v>4.607466867701</v>
+      </c>
+      <c r="S25">
+        <v>0.001852775644738704</v>
+      </c>
+      <c r="T25">
+        <v>0.001852775644738703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.166189</v>
+      </c>
+      <c r="I26">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J26">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2165623333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.649687</v>
+      </c>
+      <c r="O26">
+        <v>0.0231281940961727</v>
+      </c>
+      <c r="P26">
+        <v>0.02312819409617271</v>
+      </c>
+      <c r="Q26">
+        <v>0.01199675920477778</v>
+      </c>
+      <c r="R26">
+        <v>0.107970832843</v>
+      </c>
+      <c r="S26">
+        <v>4.341772500547171E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.341772500547171E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.166189</v>
+      </c>
+      <c r="I27">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J27">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.199173</v>
+      </c>
+      <c r="N27">
+        <v>9.597519</v>
+      </c>
+      <c r="O27">
+        <v>0.3416618806805514</v>
+      </c>
+      <c r="P27">
+        <v>0.3416618806805514</v>
+      </c>
+      <c r="Q27">
+        <v>0.177222453899</v>
+      </c>
+      <c r="R27">
+        <v>1.595002085091</v>
+      </c>
+      <c r="S27">
+        <v>0.0006413895316926304</v>
+      </c>
+      <c r="T27">
+        <v>0.0006413895316926302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.166189</v>
+      </c>
+      <c r="I28">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J28">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.909509</v>
+      </c>
+      <c r="N28">
+        <v>2.728527</v>
+      </c>
+      <c r="O28">
+        <v>0.09713277632559651</v>
+      </c>
+      <c r="P28">
+        <v>0.09713277632559653</v>
+      </c>
+      <c r="Q28">
+        <v>0.05038346373366667</v>
+      </c>
+      <c r="R28">
+        <v>0.453451173603</v>
+      </c>
+      <c r="S28">
+        <v>0.000182343859359976</v>
+      </c>
+      <c r="T28">
+        <v>0.000182343859359976</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.31253095609178</v>
-      </c>
-      <c r="H21">
-        <v>1.31253095609178</v>
-      </c>
-      <c r="I21">
-        <v>0.08721675233415543</v>
-      </c>
-      <c r="J21">
-        <v>0.08721675233415543</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.40935401094286</v>
-      </c>
-      <c r="N21">
-        <v>3.40935401094286</v>
-      </c>
-      <c r="O21">
-        <v>0.4034214962877797</v>
-      </c>
-      <c r="P21">
-        <v>0.4034214962877797</v>
-      </c>
-      <c r="Q21">
-        <v>4.474882679638177</v>
-      </c>
-      <c r="R21">
-        <v>4.474882679638177</v>
-      </c>
-      <c r="S21">
-        <v>0.03518511272800569</v>
-      </c>
-      <c r="T21">
-        <v>0.03518511272800569</v>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.166189</v>
+      </c>
+      <c r="I29">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J29">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.9524316666666667</v>
+      </c>
+      <c r="N29">
+        <v>2.857295</v>
+      </c>
+      <c r="O29">
+        <v>0.1017167856983806</v>
+      </c>
+      <c r="P29">
+        <v>0.1017167856983806</v>
+      </c>
+      <c r="Q29">
+        <v>0.05276122208388889</v>
+      </c>
+      <c r="R29">
+        <v>0.474850998755</v>
+      </c>
+      <c r="S29">
+        <v>0.0001909492549019902</v>
+      </c>
+      <c r="T29">
+        <v>0.0001909492549019902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.166189</v>
+      </c>
+      <c r="I30">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J30">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.2904826666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.871448</v>
+      </c>
+      <c r="O30">
+        <v>0.03102265935553815</v>
+      </c>
+      <c r="P30">
+        <v>0.03102265935553815</v>
+      </c>
+      <c r="Q30">
+        <v>0.01609167463022222</v>
+      </c>
+      <c r="R30">
+        <v>0.144825071672</v>
+      </c>
+      <c r="S30">
+        <v>5.823772004144814E-05</v>
+      </c>
+      <c r="T30">
+        <v>5.823772004144813E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.166189</v>
+      </c>
+      <c r="I31">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J31">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.795405666666667</v>
+      </c>
+      <c r="N31">
+        <v>11.386217</v>
+      </c>
+      <c r="O31">
+        <v>0.4053377038437606</v>
+      </c>
+      <c r="P31">
+        <v>0.4053377038437606</v>
+      </c>
+      <c r="Q31">
+        <v>0.2102515574458889</v>
+      </c>
+      <c r="R31">
+        <v>1.892264017013</v>
+      </c>
+      <c r="S31">
+        <v>0.0007609258590038391</v>
+      </c>
+      <c r="T31">
+        <v>0.0007609258590038388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H32">
+        <v>4.127515</v>
+      </c>
+      <c r="I32">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J32">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.2165623333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.649687</v>
+      </c>
+      <c r="O32">
+        <v>0.0231281940961727</v>
+      </c>
+      <c r="P32">
+        <v>0.02312819409617271</v>
+      </c>
+      <c r="Q32">
+        <v>0.2979547597561111</v>
+      </c>
+      <c r="R32">
+        <v>2.681592837805</v>
+      </c>
+      <c r="S32">
+        <v>0.001078334373670698</v>
+      </c>
+      <c r="T32">
+        <v>0.001078334373670697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H33">
+        <v>4.127515</v>
+      </c>
+      <c r="I33">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J33">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.199173</v>
+      </c>
+      <c r="N33">
+        <v>9.597519</v>
+      </c>
+      <c r="O33">
+        <v>0.3416618806805514</v>
+      </c>
+      <c r="P33">
+        <v>0.3416618806805514</v>
+      </c>
+      <c r="Q33">
+        <v>4.401544848365</v>
+      </c>
+      <c r="R33">
+        <v>39.613903635285</v>
+      </c>
+      <c r="S33">
+        <v>0.01592972406660072</v>
+      </c>
+      <c r="T33">
+        <v>0.01592972406660071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H34">
+        <v>4.127515</v>
+      </c>
+      <c r="I34">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J34">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.909509</v>
+      </c>
+      <c r="N34">
+        <v>2.728527</v>
+      </c>
+      <c r="O34">
+        <v>0.09713277632559651</v>
+      </c>
+      <c r="P34">
+        <v>0.09713277632559653</v>
+      </c>
+      <c r="Q34">
+        <v>1.251337346711667</v>
+      </c>
+      <c r="R34">
+        <v>11.262036120405</v>
+      </c>
+      <c r="S34">
+        <v>0.004528741461024444</v>
+      </c>
+      <c r="T34">
+        <v>0.004528741461024443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H35">
+        <v>4.127515</v>
+      </c>
+      <c r="I35">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J35">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.9524316666666667</v>
+      </c>
+      <c r="N35">
+        <v>2.857295</v>
+      </c>
+      <c r="O35">
+        <v>0.1017167856983806</v>
+      </c>
+      <c r="P35">
+        <v>0.1017167856983806</v>
+      </c>
+      <c r="Q35">
+        <v>1.310391996880556</v>
+      </c>
+      <c r="R35">
+        <v>11.793527971925</v>
+      </c>
+      <c r="S35">
+        <v>0.004742467394633749</v>
+      </c>
+      <c r="T35">
+        <v>0.004742467394633748</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H36">
+        <v>4.127515</v>
+      </c>
+      <c r="I36">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J36">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.2904826666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.871448</v>
+      </c>
+      <c r="O36">
+        <v>0.03102265935553815</v>
+      </c>
+      <c r="P36">
+        <v>0.03102265935553815</v>
+      </c>
+      <c r="Q36">
+        <v>0.3996571879688889</v>
+      </c>
+      <c r="R36">
+        <v>3.59691469172</v>
+      </c>
+      <c r="S36">
+        <v>0.001446407782927136</v>
+      </c>
+      <c r="T36">
+        <v>0.001446407782927136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H37">
+        <v>4.127515</v>
+      </c>
+      <c r="I37">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J37">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.795405666666667</v>
+      </c>
+      <c r="N37">
+        <v>11.386217</v>
+      </c>
+      <c r="O37">
+        <v>0.4053377038437606</v>
+      </c>
+      <c r="P37">
+        <v>0.4053377038437606</v>
+      </c>
+      <c r="Q37">
+        <v>5.221864606750556</v>
+      </c>
+      <c r="R37">
+        <v>46.996781460755</v>
+      </c>
+      <c r="S37">
+        <v>0.01889856065639862</v>
+      </c>
+      <c r="T37">
+        <v>0.01889856065639861</v>
       </c>
     </row>
   </sheetData>
